--- a/biology/Zoologie/Episcada_carcinia/Episcada_carcinia.xlsx
+++ b/biology/Zoologie/Episcada_carcinia/Episcada_carcinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada carcinia est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada carcinia a été décrit par William Schaus en 1902[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada carcinia a été décrit par William Schaus en 1902.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada carciniaa est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
 Les ailes sont transparentes avec de très fines veines et une bordure marron sur le dessus, ocre doré sur le revers. Sur les ailes antérieures un trait marron va du bord costal à l'angle de la cellule.
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada carcinia est présent dans le nord de l'Argentine, au Paraguay et au Brésil[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada carcinia est présent dans le nord de l'Argentine, au Paraguay et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_carcinia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_carcinia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada carcinia, sur Wikimedia CommonsEpiscada carcinia, sur Wikispecies
 </t>
